--- a/Code/Results/Cases/Case_0_162/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_162/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003694531128211</v>
+        <v>1.054612221764878</v>
       </c>
       <c r="D2">
-        <v>1.01105724382727</v>
+        <v>1.054017034827623</v>
       </c>
       <c r="E2">
-        <v>1.015480044210202</v>
+        <v>1.060312009897332</v>
       </c>
       <c r="F2">
-        <v>1.018139874146376</v>
+        <v>1.069158364782179</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043699844940835</v>
+        <v>1.038027765072136</v>
       </c>
       <c r="J2">
-        <v>1.025765298147676</v>
+        <v>1.059623406340892</v>
       </c>
       <c r="K2">
-        <v>1.02236465338264</v>
+        <v>1.056761405992354</v>
       </c>
       <c r="L2">
-        <v>1.026727849083</v>
+        <v>1.063039132772355</v>
       </c>
       <c r="M2">
-        <v>1.029352146416522</v>
+        <v>1.07186161991257</v>
       </c>
       <c r="N2">
-        <v>1.027222002527976</v>
+        <v>1.0611281931184</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011450127043648</v>
+        <v>1.056148000956749</v>
       </c>
       <c r="D3">
-        <v>1.017753494451706</v>
+        <v>1.055386341723682</v>
       </c>
       <c r="E3">
-        <v>1.022323250339349</v>
+        <v>1.061720429266409</v>
       </c>
       <c r="F3">
-        <v>1.025772215984789</v>
+        <v>1.070749730419641</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045587416642789</v>
+        <v>1.038306612780032</v>
       </c>
       <c r="J3">
-        <v>1.031633443382114</v>
+        <v>1.060807698869054</v>
       </c>
       <c r="K3">
-        <v>1.028164145698572</v>
+        <v>1.057942450319167</v>
       </c>
       <c r="L3">
-        <v>1.032678251427972</v>
+        <v>1.064260453220431</v>
       </c>
       <c r="M3">
-        <v>1.036085623277304</v>
+        <v>1.073267179786674</v>
       </c>
       <c r="N3">
-        <v>1.033098481201727</v>
+        <v>1.062314167477791</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016312746519017</v>
+        <v>1.057140051087728</v>
       </c>
       <c r="D4">
-        <v>1.021957310573264</v>
+        <v>1.056271012671008</v>
       </c>
       <c r="E4">
-        <v>1.026620391464371</v>
+        <v>1.062630511815077</v>
       </c>
       <c r="F4">
-        <v>1.030566782262295</v>
+        <v>1.071778416922958</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046756602727061</v>
+        <v>1.038484902330824</v>
       </c>
       <c r="J4">
-        <v>1.035308179198383</v>
+        <v>1.061571921698807</v>
       </c>
       <c r="K4">
-        <v>1.031797760570602</v>
+        <v>1.058704772259468</v>
       </c>
       <c r="L4">
-        <v>1.036407806827106</v>
+        <v>1.065048945061001</v>
       </c>
       <c r="M4">
-        <v>1.040309775839256</v>
+        <v>1.074175146172113</v>
       </c>
       <c r="N4">
-        <v>1.036778435564353</v>
+        <v>1.063079475591621</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018321865660667</v>
+        <v>1.057556710015006</v>
       </c>
       <c r="D5">
-        <v>1.023695430722534</v>
+        <v>1.056642608947908</v>
       </c>
       <c r="E5">
-        <v>1.028397360347886</v>
+        <v>1.063012816068391</v>
       </c>
       <c r="F5">
-        <v>1.03254993249246</v>
+        <v>1.072210637305405</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047236187182493</v>
+        <v>1.038559343878197</v>
       </c>
       <c r="J5">
-        <v>1.036825346381915</v>
+        <v>1.06189270609367</v>
       </c>
       <c r="K5">
-        <v>1.033298394868289</v>
+        <v>1.059024805463413</v>
       </c>
       <c r="L5">
-        <v>1.037948401074907</v>
+        <v>1.065380006289283</v>
       </c>
       <c r="M5">
-        <v>1.042055598968061</v>
+        <v>1.074556497449573</v>
       </c>
       <c r="N5">
-        <v>1.038297757299306</v>
+        <v>1.063400715537119</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018657205231654</v>
+        <v>1.05762664573216</v>
       </c>
       <c r="D6">
-        <v>1.023985606463389</v>
+        <v>1.056704983063163</v>
       </c>
       <c r="E6">
-        <v>1.028694037408854</v>
+        <v>1.063076989569102</v>
       </c>
       <c r="F6">
-        <v>1.032881062258378</v>
+        <v>1.072283195200916</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047316026522518</v>
+        <v>1.038571813005814</v>
       </c>
       <c r="J6">
-        <v>1.037078505468976</v>
+        <v>1.061946538368225</v>
       </c>
       <c r="K6">
-        <v>1.033548821258484</v>
+        <v>1.059078514416591</v>
       </c>
       <c r="L6">
-        <v>1.038205515994867</v>
+        <v>1.065435568438637</v>
       </c>
       <c r="M6">
-        <v>1.042347019843761</v>
+        <v>1.074620507236123</v>
       </c>
       <c r="N6">
-        <v>1.03855127590131</v>
+        <v>1.063454624259678</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016339727766874</v>
+        <v>1.057145620061875</v>
       </c>
       <c r="D7">
-        <v>1.021980647820439</v>
+        <v>1.056275979205338</v>
       </c>
       <c r="E7">
-        <v>1.026644249276326</v>
+        <v>1.062635621331631</v>
       </c>
       <c r="F7">
-        <v>1.03059340633612</v>
+        <v>1.071784193203757</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04676305718071</v>
+        <v>1.038485899029595</v>
       </c>
       <c r="J7">
-        <v>1.035328558459642</v>
+        <v>1.061576209972337</v>
       </c>
       <c r="K7">
-        <v>1.031817915999826</v>
+        <v>1.058709050307355</v>
       </c>
       <c r="L7">
-        <v>1.036428497625815</v>
+        <v>1.065053370362685</v>
       </c>
       <c r="M7">
-        <v>1.040333219275561</v>
+        <v>1.074180243203462</v>
       </c>
       <c r="N7">
-        <v>1.0367988437665</v>
+        <v>1.063083769954991</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006349190497969</v>
+        <v>1.055131602978356</v>
       </c>
       <c r="D8">
-        <v>1.013348104745263</v>
+        <v>1.054480084608921</v>
       </c>
       <c r="E8">
-        <v>1.017820958508258</v>
+        <v>1.060788256688461</v>
       </c>
       <c r="F8">
-        <v>1.02075035453595</v>
+        <v>1.069696393062958</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044348916878244</v>
+        <v>1.038122447883495</v>
       </c>
       <c r="J8">
-        <v>1.027774805780864</v>
+        <v>1.060024080871037</v>
       </c>
       <c r="K8">
-        <v>1.024350252830294</v>
+        <v>1.057160941082723</v>
       </c>
       <c r="L8">
-        <v>1.028764825391468</v>
+        <v>1.063452257015356</v>
       </c>
       <c r="M8">
-        <v>1.031656397629863</v>
+        <v>1.072336955563506</v>
       </c>
       <c r="N8">
-        <v>1.029234363892491</v>
+        <v>1.061529436652336</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9874429080256892</v>
+        <v>1.051569234914294</v>
       </c>
       <c r="D9">
-        <v>0.9970603327770866</v>
+        <v>1.051304753853303</v>
       </c>
       <c r="E9">
-        <v>1.001181669574813</v>
+        <v>1.057523009411143</v>
       </c>
       <c r="F9">
-        <v>1.002201786994168</v>
+        <v>1.066009147853151</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039667295708515</v>
+        <v>1.037465502371153</v>
       </c>
       <c r="J9">
-        <v>1.013447017513102</v>
+        <v>1.057272711201255</v>
       </c>
       <c r="K9">
-        <v>1.010201284767118</v>
+        <v>1.05441820074219</v>
       </c>
       <c r="L9">
-        <v>1.014255604063591</v>
+        <v>1.060616938686928</v>
       </c>
       <c r="M9">
-        <v>1.015259242461825</v>
+        <v>1.069076842241671</v>
       </c>
       <c r="N9">
-        <v>1.014886228521968</v>
+        <v>1.058774159722036</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9737905864261022</v>
+        <v>1.049184771810456</v>
       </c>
       <c r="D10">
-        <v>0.9853396574917</v>
+        <v>1.049180223701019</v>
       </c>
       <c r="E10">
-        <v>0.9892133140399127</v>
+        <v>1.055339045301237</v>
       </c>
       <c r="F10">
-        <v>0.9888670984415079</v>
+        <v>1.063544916046651</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03621456023772</v>
+        <v>1.037016331502775</v>
       </c>
       <c r="J10">
-        <v>1.00308409993597</v>
+        <v>1.055427090924428</v>
       </c>
       <c r="K10">
-        <v>0.9999787518984382</v>
+        <v>1.05257938252992</v>
       </c>
       <c r="L10">
-        <v>1.003780095424511</v>
+        <v>1.058716941486082</v>
       </c>
       <c r="M10">
-        <v>1.003440312869998</v>
+        <v>1.066894902900746</v>
       </c>
       <c r="N10">
-        <v>1.004508594413233</v>
+        <v>1.05692591845272</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9675842805790253</v>
+        <v>1.048149888265909</v>
       </c>
       <c r="D11">
-        <v>0.9800231658273271</v>
+        <v>1.048258370470721</v>
       </c>
       <c r="E11">
-        <v>0.9837856160489752</v>
+        <v>1.05439157443122</v>
       </c>
       <c r="F11">
-        <v>0.98282078222453</v>
+        <v>1.062476324086376</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034629098810939</v>
+        <v>1.036819151368152</v>
       </c>
       <c r="J11">
-        <v>0.9983706587806149</v>
+        <v>1.05462512922351</v>
       </c>
       <c r="K11">
-        <v>0.9953319120715898</v>
+        <v>1.051780617260046</v>
       </c>
       <c r="L11">
-        <v>0.9990199298049022</v>
+        <v>1.057891810163773</v>
       </c>
       <c r="M11">
-        <v>0.998074111913738</v>
+        <v>1.065947972929644</v>
       </c>
       <c r="N11">
-        <v>0.9997884596307981</v>
+        <v>1.056122817874201</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.965230078910385</v>
+        <v>1.047765116211284</v>
       </c>
       <c r="D12">
-        <v>0.9780084442092277</v>
+        <v>1.04791565672117</v>
       </c>
       <c r="E12">
-        <v>0.9817289129924012</v>
+        <v>1.05403936255923</v>
       </c>
       <c r="F12">
-        <v>0.980529758510565</v>
+        <v>1.062079156760704</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034025434924541</v>
+        <v>1.03674550401138</v>
       </c>
       <c r="J12">
-        <v>0.9965825085848634</v>
+        <v>1.054326817031884</v>
       </c>
       <c r="K12">
-        <v>0.9935694540618014</v>
+        <v>1.051483530282802</v>
       </c>
       <c r="L12">
-        <v>0.9972147342482367</v>
+        <v>1.057584948173515</v>
       </c>
       <c r="M12">
-        <v>0.996039731960868</v>
+        <v>1.065595911145168</v>
       </c>
       <c r="N12">
-        <v>0.9979977700566653</v>
+        <v>1.055824082045045</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9657373577254844</v>
+        <v>1.047847668044047</v>
       </c>
       <c r="D13">
-        <v>0.9784424810593956</v>
+        <v>1.047989183531357</v>
       </c>
       <c r="E13">
-        <v>0.9821719869311648</v>
+        <v>1.054114925965402</v>
       </c>
       <c r="F13">
-        <v>0.9810233089596135</v>
+        <v>1.062164361731681</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034155611112139</v>
+        <v>1.036761320023402</v>
       </c>
       <c r="J13">
-        <v>0.9969678234858734</v>
+        <v>1.05439082550016</v>
       </c>
       <c r="K13">
-        <v>0.9939492133345582</v>
+        <v>1.051547274219455</v>
       </c>
       <c r="L13">
-        <v>0.9976036912952432</v>
+        <v>1.057650788049846</v>
       </c>
       <c r="M13">
-        <v>0.9964780417225763</v>
+        <v>1.06567144466303</v>
       </c>
       <c r="N13">
-        <v>0.998383632149031</v>
+        <v>1.055888181412689</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9673907082727975</v>
+        <v>1.048118090500639</v>
       </c>
       <c r="D14">
-        <v>0.9798574662281736</v>
+        <v>1.048230047740354</v>
       </c>
       <c r="E14">
-        <v>0.983616460511989</v>
+        <v>1.054362466229487</v>
       </c>
       <c r="F14">
-        <v>0.9826323533062952</v>
+        <v>1.062443499160094</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034579508088028</v>
+        <v>1.036813071947826</v>
       </c>
       <c r="J14">
-        <v>0.9982236333148036</v>
+        <v>1.054600479419551</v>
       </c>
       <c r="K14">
-        <v>0.9951869903723537</v>
+        <v>1.051756067958055</v>
       </c>
       <c r="L14">
-        <v>0.9988714889992268</v>
+        <v>1.057866452479923</v>
       </c>
       <c r="M14">
-        <v>0.9979068124576472</v>
+        <v>1.065918878173187</v>
       </c>
       <c r="N14">
-        <v>0.9996412253719618</v>
+        <v>1.056098133064692</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9684027623059107</v>
+        <v>1.048284657330905</v>
       </c>
       <c r="D15">
-        <v>0.9807238738771121</v>
+        <v>1.048378412601479</v>
       </c>
       <c r="E15">
-        <v>0.9845009449922649</v>
+        <v>1.054514946727421</v>
       </c>
       <c r="F15">
-        <v>0.9836176181921127</v>
+        <v>1.062615452223109</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034838692242267</v>
+        <v>1.036844904164675</v>
       </c>
       <c r="J15">
-        <v>0.998992318163611</v>
+        <v>1.054729597180692</v>
       </c>
       <c r="K15">
-        <v>0.9959446935720953</v>
+        <v>1.051884660763694</v>
       </c>
       <c r="L15">
-        <v>0.9996476012666876</v>
+        <v>1.05799928099112</v>
       </c>
       <c r="M15">
-        <v>0.9987815517793903</v>
+        <v>1.06607128615039</v>
       </c>
       <c r="N15">
-        <v>1.000411001841424</v>
+        <v>1.056227434187864</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9741958889643931</v>
+        <v>1.049253402274482</v>
       </c>
       <c r="D16">
-        <v>0.9856871080892232</v>
+        <v>1.049241362953572</v>
       </c>
       <c r="E16">
-        <v>0.9895680550812245</v>
+        <v>1.055401887168293</v>
       </c>
       <c r="F16">
-        <v>0.9892622868642542</v>
+        <v>1.063615801201883</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036317781158614</v>
+        <v>1.037029360907754</v>
       </c>
       <c r="J16">
-        <v>1.003391871415444</v>
+        <v>1.055480254905574</v>
       </c>
       <c r="K16">
-        <v>1.000282232316319</v>
+        <v>1.052632339681194</v>
       </c>
       <c r="L16">
-        <v>1.00409101101683</v>
+        <v>1.058771651075054</v>
       </c>
       <c r="M16">
-        <v>1.003790901931868</v>
+        <v>1.066957701762809</v>
       </c>
       <c r="N16">
-        <v>1.00481680296351</v>
+        <v>1.056979157932817</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9777477902581554</v>
+        <v>1.04986042180809</v>
       </c>
       <c r="D17">
-        <v>0.9887333562529426</v>
+        <v>1.04978214965679</v>
       </c>
       <c r="E17">
-        <v>0.9926783491360556</v>
+        <v>1.055957753532236</v>
       </c>
       <c r="F17">
-        <v>0.9927273231636496</v>
+        <v>1.064242868232806</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037220594469104</v>
+        <v>1.037144344960398</v>
       </c>
       <c r="J17">
-        <v>1.006088786913528</v>
+        <v>1.0559503685906</v>
       </c>
       <c r="K17">
-        <v>1.002941857096037</v>
+        <v>1.053100652199868</v>
       </c>
       <c r="L17">
-        <v>1.00681598293895</v>
+        <v>1.0592554849643</v>
       </c>
       <c r="M17">
-        <v>1.006864081803289</v>
+        <v>1.067513148741204</v>
       </c>
       <c r="N17">
-        <v>1.007517548390942</v>
+        <v>1.057449939233198</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9797914589837704</v>
+        <v>1.050214255626666</v>
       </c>
       <c r="D18">
-        <v>0.9904871675482344</v>
+        <v>1.05009739693104</v>
       </c>
       <c r="E18">
-        <v>0.9944691412634848</v>
+        <v>1.056281807887644</v>
       </c>
       <c r="F18">
-        <v>0.9947224627950406</v>
+        <v>1.064608475652545</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037738554749071</v>
+        <v>1.037211154192392</v>
       </c>
       <c r="J18">
-        <v>1.00764027629188</v>
+        <v>1.056224308715836</v>
       </c>
       <c r="K18">
-        <v>1.004472150376252</v>
+        <v>1.053373565948827</v>
       </c>
       <c r="L18">
-        <v>1.008384032402149</v>
+        <v>1.059537464129246</v>
       </c>
       <c r="M18">
-        <v>1.008632919499478</v>
+        <v>1.067836926097569</v>
       </c>
       <c r="N18">
-        <v>1.009071241062169</v>
+        <v>1.057724268384834</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9804836614488029</v>
+        <v>1.050334865046154</v>
       </c>
       <c r="D19">
-        <v>0.9910813717596439</v>
+        <v>1.050204857067163</v>
       </c>
       <c r="E19">
-        <v>0.995075893433664</v>
+        <v>1.056392272947489</v>
       </c>
       <c r="F19">
-        <v>0.9953984702214099</v>
+        <v>1.064733113158657</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037913734026314</v>
+        <v>1.037233890548916</v>
       </c>
       <c r="J19">
-        <v>1.008165729445891</v>
+        <v>1.05631766978882</v>
       </c>
       <c r="K19">
-        <v>1.004990468099224</v>
+        <v>1.05346658115523</v>
       </c>
       <c r="L19">
-        <v>1.008915165092923</v>
+        <v>1.059633572461743</v>
       </c>
       <c r="M19">
-        <v>1.009232134856624</v>
+        <v>1.067947291227117</v>
       </c>
       <c r="N19">
-        <v>1.009597440419929</v>
+        <v>1.057817762041251</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9773696421510093</v>
+        <v>1.049795318263863</v>
       </c>
       <c r="D20">
-        <v>0.9884089279998598</v>
+        <v>1.049724147501274</v>
       </c>
       <c r="E20">
-        <v>0.9923470888009241</v>
+        <v>1.055898132297697</v>
       </c>
       <c r="F20">
-        <v>0.9923582711960245</v>
+        <v>1.064175605478834</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037124632288018</v>
+        <v>1.037132035068173</v>
       </c>
       <c r="J20">
-        <v>1.005801687993172</v>
+        <v>1.055899957746252</v>
       </c>
       <c r="K20">
-        <v>1.002658701176103</v>
+        <v>1.053050432097699</v>
       </c>
       <c r="L20">
-        <v>1.006525853599831</v>
+        <v>1.059203598319989</v>
       </c>
       <c r="M20">
-        <v>1.006536835409304</v>
+        <v>1.067453575854505</v>
       </c>
       <c r="N20">
-        <v>1.007230041757188</v>
+        <v>1.05739945679967</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9669052282104306</v>
+        <v>1.048038468131038</v>
       </c>
       <c r="D21">
-        <v>0.9794419230957679</v>
+        <v>1.048159127483757</v>
       </c>
       <c r="E21">
-        <v>0.9831922530938259</v>
+        <v>1.054289579562624</v>
       </c>
       <c r="F21">
-        <v>0.9821598134296017</v>
+        <v>1.062361306978733</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034455098489739</v>
+        <v>1.036797843518751</v>
       </c>
       <c r="J21">
-        <v>0.9978548897622431</v>
+        <v>1.054538753441532</v>
       </c>
       <c r="K21">
-        <v>0.9948235300019439</v>
+        <v>1.051694594233564</v>
       </c>
       <c r="L21">
-        <v>0.9984992067017116</v>
+        <v>1.05780295499897</v>
       </c>
       <c r="M21">
-        <v>0.9974872438223785</v>
+        <v>1.065846024348738</v>
       </c>
       <c r="N21">
-        <v>0.9992719581612614</v>
+        <v>1.056036319428704</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9600400855243454</v>
+        <v>1.046931719502506</v>
       </c>
       <c r="D22">
-        <v>0.9735707010784347</v>
+        <v>1.047173418153666</v>
       </c>
       <c r="E22">
-        <v>0.9771989837166389</v>
+        <v>1.053276600078509</v>
       </c>
       <c r="F22">
-        <v>0.9754838243152573</v>
+        <v>1.061219164862826</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032690591745905</v>
+        <v>1.036585374598717</v>
       </c>
       <c r="J22">
-        <v>0.9926401701751049</v>
+        <v>1.05368043058406</v>
       </c>
       <c r="K22">
-        <v>0.9896845605159929</v>
+        <v>1.05083986494685</v>
       </c>
       <c r="L22">
-        <v>0.9932360816837643</v>
+        <v>1.056920161730361</v>
       </c>
       <c r="M22">
-        <v>0.9915571147085046</v>
+        <v>1.06483338012619</v>
       </c>
       <c r="N22">
-        <v>0.9940498330741725</v>
+        <v>1.055176777654325</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9637082406366241</v>
+        <v>1.04751863490425</v>
       </c>
       <c r="D23">
-        <v>0.9767066347021497</v>
+        <v>1.047696127065389</v>
       </c>
       <c r="E23">
-        <v>0.9804000212206394</v>
+        <v>1.053813755969205</v>
       </c>
       <c r="F23">
-        <v>0.9790494828425986</v>
+        <v>1.061824773967984</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033634584740478</v>
+        <v>1.036698231867847</v>
       </c>
       <c r="J23">
-        <v>0.9954265413175686</v>
+        <v>1.054135681454307</v>
       </c>
       <c r="K23">
-        <v>0.9924302174414464</v>
+        <v>1.051293189928279</v>
       </c>
       <c r="L23">
-        <v>0.9960479407091175</v>
+        <v>1.057388353900532</v>
       </c>
       <c r="M23">
-        <v>0.9947249823438368</v>
+        <v>1.065370386304187</v>
       </c>
       <c r="N23">
-        <v>0.9968401611832596</v>
+        <v>1.055632675033024</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9775405974844639</v>
+        <v>1.049824736465255</v>
       </c>
       <c r="D24">
-        <v>0.9885555940099541</v>
+        <v>1.049750356748863</v>
       </c>
       <c r="E24">
-        <v>0.9924968430910449</v>
+        <v>1.055925073102269</v>
       </c>
       <c r="F24">
-        <v>0.9925251097971942</v>
+        <v>1.06420599908629</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037168020066433</v>
+        <v>1.037137598179032</v>
       </c>
       <c r="J24">
-        <v>1.005931482062961</v>
+        <v>1.055922737068992</v>
       </c>
       <c r="K24">
-        <v>1.002786711864713</v>
+        <v>1.053073125157445</v>
       </c>
       <c r="L24">
-        <v>1.006657016382479</v>
+        <v>1.059227044381119</v>
       </c>
       <c r="M24">
-        <v>1.006684776916061</v>
+        <v>1.067480494912798</v>
       </c>
       <c r="N24">
-        <v>1.007360020149444</v>
+        <v>1.057422268471661</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9925013934051025</v>
+        <v>1.05249183655064</v>
       </c>
       <c r="D25">
-        <v>1.001411885326218</v>
+        <v>1.052126968696828</v>
       </c>
       <c r="E25">
-        <v>1.005626206966692</v>
+        <v>1.058368378825539</v>
       </c>
       <c r="F25">
-        <v>1.007154940383687</v>
+        <v>1.066963421451337</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040932499439013</v>
+        <v>1.037637305390964</v>
       </c>
       <c r="J25">
-        <v>1.017283777917095</v>
+        <v>1.057985981305319</v>
       </c>
       <c r="K25">
-        <v>1.013988323061001</v>
+        <v>1.055129055761859</v>
       </c>
       <c r="L25">
-        <v>1.018137806672995</v>
+        <v>1.061351631257155</v>
       </c>
       <c r="M25">
-        <v>1.019643191286526</v>
+        <v>1.069921129361346</v>
       </c>
       <c r="N25">
-        <v>1.018728437565818</v>
+        <v>1.059488442751462</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_162/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_162/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.054612221764878</v>
+        <v>1.00369453112821</v>
       </c>
       <c r="D2">
-        <v>1.054017034827623</v>
+        <v>1.011057243827269</v>
       </c>
       <c r="E2">
-        <v>1.060312009897332</v>
+        <v>1.015480044210201</v>
       </c>
       <c r="F2">
-        <v>1.069158364782179</v>
+        <v>1.018139874146375</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038027765072136</v>
+        <v>1.043699844940835</v>
       </c>
       <c r="J2">
-        <v>1.059623406340892</v>
+        <v>1.025765298147675</v>
       </c>
       <c r="K2">
-        <v>1.056761405992354</v>
+        <v>1.022364653382638</v>
       </c>
       <c r="L2">
-        <v>1.063039132772355</v>
+        <v>1.026727849082999</v>
       </c>
       <c r="M2">
-        <v>1.07186161991257</v>
+        <v>1.029352146416521</v>
       </c>
       <c r="N2">
-        <v>1.0611281931184</v>
+        <v>1.027222002527975</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.056148000956749</v>
+        <v>1.011450127043646</v>
       </c>
       <c r="D3">
-        <v>1.055386341723682</v>
+        <v>1.017753494451705</v>
       </c>
       <c r="E3">
-        <v>1.061720429266409</v>
+        <v>1.022323250339347</v>
       </c>
       <c r="F3">
-        <v>1.070749730419641</v>
+        <v>1.025772215984788</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038306612780032</v>
+        <v>1.045587416642789</v>
       </c>
       <c r="J3">
-        <v>1.060807698869054</v>
+        <v>1.031633443382113</v>
       </c>
       <c r="K3">
-        <v>1.057942450319167</v>
+        <v>1.028164145698571</v>
       </c>
       <c r="L3">
-        <v>1.064260453220431</v>
+        <v>1.03267825142797</v>
       </c>
       <c r="M3">
-        <v>1.073267179786674</v>
+        <v>1.036085623277302</v>
       </c>
       <c r="N3">
-        <v>1.062314167477791</v>
+        <v>1.033098481201725</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057140051087728</v>
+        <v>1.016312746519017</v>
       </c>
       <c r="D4">
-        <v>1.056271012671008</v>
+        <v>1.021957310573264</v>
       </c>
       <c r="E4">
-        <v>1.062630511815077</v>
+        <v>1.02662039146437</v>
       </c>
       <c r="F4">
-        <v>1.071778416922958</v>
+        <v>1.030566782262294</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038484902330824</v>
+        <v>1.046756602727061</v>
       </c>
       <c r="J4">
-        <v>1.061571921698807</v>
+        <v>1.035308179198383</v>
       </c>
       <c r="K4">
-        <v>1.058704772259468</v>
+        <v>1.031797760570602</v>
       </c>
       <c r="L4">
-        <v>1.065048945061001</v>
+        <v>1.036407806827106</v>
       </c>
       <c r="M4">
-        <v>1.074175146172113</v>
+        <v>1.040309775839256</v>
       </c>
       <c r="N4">
-        <v>1.063079475591621</v>
+        <v>1.036778435564352</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057556710015006</v>
+        <v>1.018321865660665</v>
       </c>
       <c r="D5">
-        <v>1.056642608947908</v>
+        <v>1.023695430722533</v>
       </c>
       <c r="E5">
-        <v>1.063012816068391</v>
+        <v>1.028397360347884</v>
       </c>
       <c r="F5">
-        <v>1.072210637305405</v>
+        <v>1.032549932492459</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038559343878197</v>
+        <v>1.047236187182492</v>
       </c>
       <c r="J5">
-        <v>1.06189270609367</v>
+        <v>1.036825346381913</v>
       </c>
       <c r="K5">
-        <v>1.059024805463413</v>
+        <v>1.033298394868287</v>
       </c>
       <c r="L5">
-        <v>1.065380006289283</v>
+        <v>1.037948401074905</v>
       </c>
       <c r="M5">
-        <v>1.074556497449573</v>
+        <v>1.04205559896806</v>
       </c>
       <c r="N5">
-        <v>1.063400715537119</v>
+        <v>1.038297757299305</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.05762664573216</v>
+        <v>1.018657205231654</v>
       </c>
       <c r="D6">
-        <v>1.056704983063163</v>
+        <v>1.023985606463388</v>
       </c>
       <c r="E6">
-        <v>1.063076989569102</v>
+        <v>1.028694037408853</v>
       </c>
       <c r="F6">
-        <v>1.072283195200916</v>
+        <v>1.032881062258377</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038571813005814</v>
+        <v>1.047316026522518</v>
       </c>
       <c r="J6">
-        <v>1.061946538368225</v>
+        <v>1.037078505468976</v>
       </c>
       <c r="K6">
-        <v>1.059078514416591</v>
+        <v>1.033548821258483</v>
       </c>
       <c r="L6">
-        <v>1.065435568438637</v>
+        <v>1.038205515994866</v>
       </c>
       <c r="M6">
-        <v>1.074620507236123</v>
+        <v>1.04234701984376</v>
       </c>
       <c r="N6">
-        <v>1.063454624259678</v>
+        <v>1.038551275901309</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057145620061875</v>
+        <v>1.016339727766873</v>
       </c>
       <c r="D7">
-        <v>1.056275979205338</v>
+        <v>1.021980647820438</v>
       </c>
       <c r="E7">
-        <v>1.062635621331631</v>
+        <v>1.026644249276325</v>
       </c>
       <c r="F7">
-        <v>1.071784193203757</v>
+        <v>1.030593406336118</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038485899029595</v>
+        <v>1.04676305718071</v>
       </c>
       <c r="J7">
-        <v>1.061576209972337</v>
+        <v>1.035328558459641</v>
       </c>
       <c r="K7">
-        <v>1.058709050307355</v>
+        <v>1.031817915999825</v>
       </c>
       <c r="L7">
-        <v>1.065053370362685</v>
+        <v>1.036428497625815</v>
       </c>
       <c r="M7">
-        <v>1.074180243203462</v>
+        <v>1.04033321927556</v>
       </c>
       <c r="N7">
-        <v>1.063083769954991</v>
+        <v>1.036798843766499</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055131602978356</v>
+        <v>1.006349190497969</v>
       </c>
       <c r="D8">
-        <v>1.054480084608921</v>
+        <v>1.013348104745263</v>
       </c>
       <c r="E8">
-        <v>1.060788256688461</v>
+        <v>1.017820958508258</v>
       </c>
       <c r="F8">
-        <v>1.069696393062958</v>
+        <v>1.02075035453595</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038122447883495</v>
+        <v>1.044348916878244</v>
       </c>
       <c r="J8">
-        <v>1.060024080871037</v>
+        <v>1.027774805780863</v>
       </c>
       <c r="K8">
-        <v>1.057160941082723</v>
+        <v>1.024350252830293</v>
       </c>
       <c r="L8">
-        <v>1.063452257015356</v>
+        <v>1.028764825391467</v>
       </c>
       <c r="M8">
-        <v>1.072336955563506</v>
+        <v>1.031656397629863</v>
       </c>
       <c r="N8">
-        <v>1.061529436652336</v>
+        <v>1.02923436389249</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051569234914294</v>
+        <v>0.9874429080256877</v>
       </c>
       <c r="D9">
-        <v>1.051304753853303</v>
+        <v>0.9970603327770849</v>
       </c>
       <c r="E9">
-        <v>1.057523009411143</v>
+        <v>1.001181669574812</v>
       </c>
       <c r="F9">
-        <v>1.066009147853151</v>
+        <v>1.002201786994167</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037465502371153</v>
+        <v>1.039667295708515</v>
       </c>
       <c r="J9">
-        <v>1.057272711201255</v>
+        <v>1.0134470175131</v>
       </c>
       <c r="K9">
-        <v>1.05441820074219</v>
+        <v>1.010201284767116</v>
       </c>
       <c r="L9">
-        <v>1.060616938686928</v>
+        <v>1.01425560406359</v>
       </c>
       <c r="M9">
-        <v>1.069076842241671</v>
+        <v>1.015259242461824</v>
       </c>
       <c r="N9">
-        <v>1.058774159722036</v>
+        <v>1.014886228521966</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.049184771810456</v>
+        <v>0.9737905864261026</v>
       </c>
       <c r="D10">
-        <v>1.049180223701019</v>
+        <v>0.9853396574917002</v>
       </c>
       <c r="E10">
-        <v>1.055339045301237</v>
+        <v>0.9892133140399133</v>
       </c>
       <c r="F10">
-        <v>1.063544916046651</v>
+        <v>0.9888670984415083</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037016331502775</v>
+        <v>1.03621456023772</v>
       </c>
       <c r="J10">
-        <v>1.055427090924428</v>
+        <v>1.00308409993597</v>
       </c>
       <c r="K10">
-        <v>1.05257938252992</v>
+        <v>0.9999787518984384</v>
       </c>
       <c r="L10">
-        <v>1.058716941486082</v>
+        <v>1.003780095424511</v>
       </c>
       <c r="M10">
-        <v>1.066894902900746</v>
+        <v>1.003440312869998</v>
       </c>
       <c r="N10">
-        <v>1.05692591845272</v>
+        <v>1.004508594413233</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.048149888265909</v>
+        <v>0.9675842805790242</v>
       </c>
       <c r="D11">
-        <v>1.048258370470721</v>
+        <v>0.9800231658273262</v>
       </c>
       <c r="E11">
-        <v>1.05439157443122</v>
+        <v>0.9837856160489745</v>
       </c>
       <c r="F11">
-        <v>1.062476324086376</v>
+        <v>0.9828207822245287</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036819151368152</v>
+        <v>1.034629098810939</v>
       </c>
       <c r="J11">
-        <v>1.05462512922351</v>
+        <v>0.998370658780614</v>
       </c>
       <c r="K11">
-        <v>1.051780617260046</v>
+        <v>0.995331912071589</v>
       </c>
       <c r="L11">
-        <v>1.057891810163773</v>
+        <v>0.9990199298049014</v>
       </c>
       <c r="M11">
-        <v>1.065947972929644</v>
+        <v>0.9980741119137368</v>
       </c>
       <c r="N11">
-        <v>1.056122817874201</v>
+        <v>0.9997884596307972</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.047765116211284</v>
+        <v>0.9652300789103849</v>
       </c>
       <c r="D12">
-        <v>1.04791565672117</v>
+        <v>0.9780084442092276</v>
       </c>
       <c r="E12">
-        <v>1.05403936255923</v>
+        <v>0.9817289129924005</v>
       </c>
       <c r="F12">
-        <v>1.062079156760704</v>
+        <v>0.980529758510564</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03674550401138</v>
+        <v>1.03402543492454</v>
       </c>
       <c r="J12">
-        <v>1.054326817031884</v>
+        <v>0.9965825085848631</v>
       </c>
       <c r="K12">
-        <v>1.051483530282802</v>
+        <v>0.993569454061801</v>
       </c>
       <c r="L12">
-        <v>1.057584948173515</v>
+        <v>0.997214734248236</v>
       </c>
       <c r="M12">
-        <v>1.065595911145168</v>
+        <v>0.996039731960867</v>
       </c>
       <c r="N12">
-        <v>1.055824082045045</v>
+        <v>0.997997770056665</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047847668044047</v>
+        <v>0.9657373577254829</v>
       </c>
       <c r="D13">
-        <v>1.047989183531357</v>
+        <v>0.9784424810593938</v>
       </c>
       <c r="E13">
-        <v>1.054114925965402</v>
+        <v>0.9821719869311631</v>
       </c>
       <c r="F13">
-        <v>1.062164361731681</v>
+        <v>0.9810233089596117</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036761320023402</v>
+        <v>1.034155611112139</v>
       </c>
       <c r="J13">
-        <v>1.05439082550016</v>
+        <v>0.9969678234858719</v>
       </c>
       <c r="K13">
-        <v>1.051547274219455</v>
+        <v>0.9939492133345567</v>
       </c>
       <c r="L13">
-        <v>1.057650788049846</v>
+        <v>0.9976036912952416</v>
       </c>
       <c r="M13">
-        <v>1.06567144466303</v>
+        <v>0.9964780417225745</v>
       </c>
       <c r="N13">
-        <v>1.055888181412689</v>
+        <v>0.9983836321490295</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.048118090500639</v>
+        <v>0.967390708272798</v>
       </c>
       <c r="D14">
-        <v>1.048230047740354</v>
+        <v>0.9798574662281743</v>
       </c>
       <c r="E14">
-        <v>1.054362466229487</v>
+        <v>0.9836164605119891</v>
       </c>
       <c r="F14">
-        <v>1.062443499160094</v>
+        <v>0.9826323533062954</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036813071947826</v>
+        <v>1.034579508088028</v>
       </c>
       <c r="J14">
-        <v>1.054600479419551</v>
+        <v>0.998223633314804</v>
       </c>
       <c r="K14">
-        <v>1.051756067958055</v>
+        <v>0.9951869903723541</v>
       </c>
       <c r="L14">
-        <v>1.057866452479923</v>
+        <v>0.9988714889992272</v>
       </c>
       <c r="M14">
-        <v>1.065918878173187</v>
+        <v>0.9979068124576472</v>
       </c>
       <c r="N14">
-        <v>1.056098133064692</v>
+        <v>0.9996412253719621</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.048284657330905</v>
+        <v>0.9684027623059122</v>
       </c>
       <c r="D15">
-        <v>1.048378412601479</v>
+        <v>0.9807238738771137</v>
       </c>
       <c r="E15">
-        <v>1.054514946727421</v>
+        <v>0.9845009449922665</v>
       </c>
       <c r="F15">
-        <v>1.062615452223109</v>
+        <v>0.9836176181921141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036844904164675</v>
+        <v>1.034838692242268</v>
       </c>
       <c r="J15">
-        <v>1.054729597180692</v>
+        <v>0.9989923181636127</v>
       </c>
       <c r="K15">
-        <v>1.051884660763694</v>
+        <v>0.9959446935720965</v>
       </c>
       <c r="L15">
-        <v>1.05799928099112</v>
+        <v>0.9996476012666891</v>
       </c>
       <c r="M15">
-        <v>1.06607128615039</v>
+        <v>0.998781551779392</v>
       </c>
       <c r="N15">
-        <v>1.056227434187864</v>
+        <v>1.000411001841425</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.049253402274482</v>
+        <v>0.9741958889643926</v>
       </c>
       <c r="D16">
-        <v>1.049241362953572</v>
+        <v>0.9856871080892221</v>
       </c>
       <c r="E16">
-        <v>1.055401887168293</v>
+        <v>0.989568055081224</v>
       </c>
       <c r="F16">
-        <v>1.063615801201883</v>
+        <v>0.9892622868642541</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037029360907754</v>
+        <v>1.036317781158614</v>
       </c>
       <c r="J16">
-        <v>1.055480254905574</v>
+        <v>1.003391871415443</v>
       </c>
       <c r="K16">
-        <v>1.052632339681194</v>
+        <v>1.000282232316318</v>
       </c>
       <c r="L16">
-        <v>1.058771651075054</v>
+        <v>1.00409101101683</v>
       </c>
       <c r="M16">
-        <v>1.066957701762809</v>
+        <v>1.003790901931868</v>
       </c>
       <c r="N16">
-        <v>1.056979157932817</v>
+        <v>1.004816802963509</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04986042180809</v>
+        <v>0.9777477902581538</v>
       </c>
       <c r="D17">
-        <v>1.04978214965679</v>
+        <v>0.9887333562529412</v>
       </c>
       <c r="E17">
-        <v>1.055957753532236</v>
+        <v>0.9926783491360543</v>
       </c>
       <c r="F17">
-        <v>1.064242868232806</v>
+        <v>0.9927273231636484</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037144344960398</v>
+        <v>1.037220594469104</v>
       </c>
       <c r="J17">
-        <v>1.0559503685906</v>
+        <v>1.006088786913527</v>
       </c>
       <c r="K17">
-        <v>1.053100652199868</v>
+        <v>1.002941857096036</v>
       </c>
       <c r="L17">
-        <v>1.0592554849643</v>
+        <v>1.006815982938949</v>
       </c>
       <c r="M17">
-        <v>1.067513148741204</v>
+        <v>1.006864081803288</v>
       </c>
       <c r="N17">
-        <v>1.057449939233198</v>
+        <v>1.007517548390941</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.050214255626666</v>
+        <v>0.9797914589837698</v>
       </c>
       <c r="D18">
-        <v>1.05009739693104</v>
+        <v>0.9904871675482341</v>
       </c>
       <c r="E18">
-        <v>1.056281807887644</v>
+        <v>0.9944691412634846</v>
       </c>
       <c r="F18">
-        <v>1.064608475652545</v>
+        <v>0.9947224627950401</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037211154192392</v>
+        <v>1.037738554749071</v>
       </c>
       <c r="J18">
-        <v>1.056224308715836</v>
+        <v>1.00764027629188</v>
       </c>
       <c r="K18">
-        <v>1.053373565948827</v>
+        <v>1.004472150376252</v>
       </c>
       <c r="L18">
-        <v>1.059537464129246</v>
+        <v>1.008384032402148</v>
       </c>
       <c r="M18">
-        <v>1.067836926097569</v>
+        <v>1.008632919499477</v>
       </c>
       <c r="N18">
-        <v>1.057724268384834</v>
+        <v>1.009071241062169</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.050334865046154</v>
+        <v>0.9804836614488033</v>
       </c>
       <c r="D19">
-        <v>1.050204857067163</v>
+        <v>0.9910813717596444</v>
       </c>
       <c r="E19">
-        <v>1.056392272947489</v>
+        <v>0.9950758934336643</v>
       </c>
       <c r="F19">
-        <v>1.064733113158657</v>
+        <v>0.9953984702214103</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037233890548916</v>
+        <v>1.037913734026315</v>
       </c>
       <c r="J19">
-        <v>1.05631766978882</v>
+        <v>1.008165729445891</v>
       </c>
       <c r="K19">
-        <v>1.05346658115523</v>
+        <v>1.004990468099224</v>
       </c>
       <c r="L19">
-        <v>1.059633572461743</v>
+        <v>1.008915165092923</v>
       </c>
       <c r="M19">
-        <v>1.067947291227117</v>
+        <v>1.009232134856624</v>
       </c>
       <c r="N19">
-        <v>1.057817762041251</v>
+        <v>1.009597440419929</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.049795318263863</v>
+        <v>0.9773696421510092</v>
       </c>
       <c r="D20">
-        <v>1.049724147501274</v>
+        <v>0.9884089279998596</v>
       </c>
       <c r="E20">
-        <v>1.055898132297697</v>
+        <v>0.9923470888009241</v>
       </c>
       <c r="F20">
-        <v>1.064175605478834</v>
+        <v>0.9923582711960245</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037132035068173</v>
+        <v>1.037124632288018</v>
       </c>
       <c r="J20">
-        <v>1.055899957746252</v>
+        <v>1.005801687993172</v>
       </c>
       <c r="K20">
-        <v>1.053050432097699</v>
+        <v>1.002658701176103</v>
       </c>
       <c r="L20">
-        <v>1.059203598319989</v>
+        <v>1.006525853599831</v>
       </c>
       <c r="M20">
-        <v>1.067453575854505</v>
+        <v>1.006536835409304</v>
       </c>
       <c r="N20">
-        <v>1.05739945679967</v>
+        <v>1.007230041757188</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.048038468131038</v>
+        <v>0.9669052282104306</v>
       </c>
       <c r="D21">
-        <v>1.048159127483757</v>
+        <v>0.9794419230957681</v>
       </c>
       <c r="E21">
-        <v>1.054289579562624</v>
+        <v>0.9831922530938256</v>
       </c>
       <c r="F21">
-        <v>1.062361306978733</v>
+        <v>0.9821598134296009</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036797843518751</v>
+        <v>1.034455098489739</v>
       </c>
       <c r="J21">
-        <v>1.054538753441532</v>
+        <v>0.9978548897622431</v>
       </c>
       <c r="K21">
-        <v>1.051694594233564</v>
+        <v>0.994823530001944</v>
       </c>
       <c r="L21">
-        <v>1.05780295499897</v>
+        <v>0.9984992067017113</v>
       </c>
       <c r="M21">
-        <v>1.065846024348738</v>
+        <v>0.997487243822378</v>
       </c>
       <c r="N21">
-        <v>1.056036319428704</v>
+        <v>0.9992719581612612</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046931719502506</v>
+        <v>0.9600400855243452</v>
       </c>
       <c r="D22">
-        <v>1.047173418153666</v>
+        <v>0.9735707010784346</v>
       </c>
       <c r="E22">
-        <v>1.053276600078509</v>
+        <v>0.9771989837166387</v>
       </c>
       <c r="F22">
-        <v>1.061219164862826</v>
+        <v>0.9754838243152572</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036585374598717</v>
+        <v>1.032690591745905</v>
       </c>
       <c r="J22">
-        <v>1.05368043058406</v>
+        <v>0.9926401701751046</v>
       </c>
       <c r="K22">
-        <v>1.05083986494685</v>
+        <v>0.9896845605159927</v>
       </c>
       <c r="L22">
-        <v>1.056920161730361</v>
+        <v>0.9932360816837642</v>
       </c>
       <c r="M22">
-        <v>1.06483338012619</v>
+        <v>0.9915571147085045</v>
       </c>
       <c r="N22">
-        <v>1.055176777654325</v>
+        <v>0.9940498330741724</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04751863490425</v>
+        <v>0.9637082406366234</v>
       </c>
       <c r="D23">
-        <v>1.047696127065389</v>
+        <v>0.9767066347021494</v>
       </c>
       <c r="E23">
-        <v>1.053813755969205</v>
+        <v>0.9804000212206387</v>
       </c>
       <c r="F23">
-        <v>1.061824773967984</v>
+        <v>0.9790494828425979</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036698231867847</v>
+        <v>1.033634584740478</v>
       </c>
       <c r="J23">
-        <v>1.054135681454307</v>
+        <v>0.9954265413175684</v>
       </c>
       <c r="K23">
-        <v>1.051293189928279</v>
+        <v>0.9924302174414458</v>
       </c>
       <c r="L23">
-        <v>1.057388353900532</v>
+        <v>0.996047940709117</v>
       </c>
       <c r="M23">
-        <v>1.065370386304187</v>
+        <v>0.9947249823438361</v>
       </c>
       <c r="N23">
-        <v>1.055632675033024</v>
+        <v>0.9968401611832592</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.049824736465255</v>
+        <v>0.9775405974844644</v>
       </c>
       <c r="D24">
-        <v>1.049750356748863</v>
+        <v>0.9885555940099549</v>
       </c>
       <c r="E24">
-        <v>1.055925073102269</v>
+        <v>0.9924968430910452</v>
       </c>
       <c r="F24">
-        <v>1.06420599908629</v>
+        <v>0.9925251097971949</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037137598179032</v>
+        <v>1.037168020066433</v>
       </c>
       <c r="J24">
-        <v>1.055922737068992</v>
+        <v>1.005931482062962</v>
       </c>
       <c r="K24">
-        <v>1.053073125157445</v>
+        <v>1.002786711864714</v>
       </c>
       <c r="L24">
-        <v>1.059227044381119</v>
+        <v>1.006657016382479</v>
       </c>
       <c r="M24">
-        <v>1.067480494912798</v>
+        <v>1.006684776916061</v>
       </c>
       <c r="N24">
-        <v>1.057422268471661</v>
+        <v>1.007360020149445</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.05249183655064</v>
+        <v>0.9925013934051004</v>
       </c>
       <c r="D25">
-        <v>1.052126968696828</v>
+        <v>1.001411885326216</v>
       </c>
       <c r="E25">
-        <v>1.058368378825539</v>
+        <v>1.00562620696669</v>
       </c>
       <c r="F25">
-        <v>1.066963421451337</v>
+        <v>1.007154940383685</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037637305390964</v>
+        <v>1.040932499439013</v>
       </c>
       <c r="J25">
-        <v>1.057985981305319</v>
+        <v>1.017283777917093</v>
       </c>
       <c r="K25">
-        <v>1.055129055761859</v>
+        <v>1.013988323060999</v>
       </c>
       <c r="L25">
-        <v>1.061351631257155</v>
+        <v>1.018137806672993</v>
       </c>
       <c r="M25">
-        <v>1.069921129361346</v>
+        <v>1.019643191286524</v>
       </c>
       <c r="N25">
-        <v>1.059488442751462</v>
+        <v>1.018728437565816</v>
       </c>
     </row>
   </sheetData>
